--- a/Resource/excel/K-框架-全局常量-(框架定义,策划填写).xlsx
+++ b/Resource/excel/K-框架-全局常量-(框架定义,策划填写).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="1" shapeId="0">
+    <comment ref="F40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,17 +159,19 @@
     <t>signinresettime</t>
   </si>
   <si>
-    <t>聊天的时间间隔(单位:毫秒)</t>
-  </si>
-  <si>
-    <t>chatintervaltime</t>
+    <t>战绩重置时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoreresettime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -205,6 +207,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -271,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +363,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,11 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -859,12 +871,12 @@
       <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="10"/>
@@ -909,7 +921,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
@@ -933,7 +945,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -949,7 +961,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
@@ -1013,13 +1025,13 @@
       <c r="E24" s="16"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="10"/>
+    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
@@ -1070,7 +1082,7 @@
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -1109,21 +1121,21 @@
       <c r="E36" s="18"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
@@ -1134,12 +1146,10 @@
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>
@@ -1202,9 +1212,6 @@
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -1212,9 +1219,6 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F53" s="25"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F54" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Resource/excel/K-框架-全局常量-(框架定义,策划填写).xlsx
+++ b/Resource/excel/K-框架-全局常量-(框架定义,策划填写).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="1" shapeId="0">
+    <comment ref="F38" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#constant</t>
   </si>
@@ -151,27 +151,13 @@
   </si>
   <si>
     <t>Service(int)</t>
-  </si>
-  <si>
-    <t>签到时间</t>
-  </si>
-  <si>
-    <t>signinresettime</t>
-  </si>
-  <si>
-    <t>战绩重置时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>scoreresettime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -207,13 +193,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -280,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,9 +342,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,11 +716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,30 +830,18 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="16">
-        <v>2</v>
-      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="16">
-        <v>2</v>
-      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="10"/>
     </row>
@@ -905,7 +869,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
@@ -913,7 +877,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
@@ -929,7 +893,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
@@ -937,7 +901,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -945,7 +909,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -953,7 +917,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
@@ -1009,21 +973,21 @@
       <c r="E22" s="16"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="10"/>
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
@@ -1066,7 +1030,7 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1074,7 +1038,7 @@
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="19"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -1105,45 +1069,41 @@
       <c r="E34" s="18"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
+    <row r="35" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="22"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="24"/>
@@ -1199,26 +1159,14 @@
       <c r="E48" s="24"/>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F51" s="25"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F52" s="25"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F53" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
